--- a/DAILY TARGET STATUS.xlsx
+++ b/DAILY TARGET STATUS.xlsx
@@ -5,22 +5,24 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP EXCEL\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95324F0B-FDE1-4E4B-B8DF-92D2EB48D0EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8CADEE-465E-471D-96B1-A864BBA769F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{E2059095-652E-4CCD-BC0B-3CAD80266612}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{E2059095-652E-4CCD-BC0B-3CAD80266612}"/>
   </bookViews>
   <sheets>
     <sheet name="LIFE_SATISFACTION" sheetId="7" r:id="rId1"/>
     <sheet name="RECENT WORK" sheetId="1" r:id="rId2"/>
     <sheet name="TARGET" sheetId="2" r:id="rId3"/>
-    <sheet name="CORPORATE_WORK" sheetId="9" r:id="rId4"/>
-    <sheet name="ROUTINE" sheetId="3" r:id="rId5"/>
-    <sheet name="LEVEL UP" sheetId="5" r:id="rId6"/>
-    <sheet name="OWN PRODUCT" sheetId="10" r:id="rId7"/>
-    <sheet name="RULES_TO_EASE_LIFE" sheetId="8" r:id="rId8"/>
+    <sheet name="AFTER_RAMADAN_ROUTINE" sheetId="12" r:id="rId4"/>
+    <sheet name="CORPORATE_WORK" sheetId="9" r:id="rId5"/>
+    <sheet name="ROUTINE" sheetId="3" r:id="rId6"/>
+    <sheet name="LEVEL UP" sheetId="5" r:id="rId7"/>
+    <sheet name="OWN PRODUCT" sheetId="10" r:id="rId8"/>
+    <sheet name="RULES_TO_EASE_LIFE" sheetId="8" r:id="rId9"/>
+    <sheet name="EVERYTHING_TO_OR" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="142">
   <si>
     <t>SL NO</t>
   </si>
@@ -347,9 +349,6 @@
   </si>
   <si>
     <t>ROUTINE MAKE ND WAY TO TEACH</t>
-  </si>
-  <si>
-    <t>NEXT-JS EXPORT TO UPLOAD</t>
   </si>
   <si>
     <t>SCHOOL ROUTINE</t>
@@ -416,6 +415,63 @@
   </si>
   <si>
     <t>ANALYZE 1/2 HOUR EVERYDAY TO CHANGE THE ENTIRE LIFE GAME</t>
+  </si>
+  <si>
+    <t>JA BLUEPRINT</t>
+  </si>
+  <si>
+    <t>sl.no</t>
+  </si>
+  <si>
+    <t>HOW TO BE CALM &amp; STRESS FREE AFTER RAMADAN LIKE RAMADAN</t>
+  </si>
+  <si>
+    <t>HOW TO AVOID PN &amp; MSB AFTER RAMDAN LIKE RAMADAN</t>
+  </si>
+  <si>
+    <t>WHY SOMETIME FEEL LIKE IN PAIN</t>
+  </si>
+  <si>
+    <t>INTEREST RULE</t>
+  </si>
+  <si>
+    <t>CHANGE STATE OF POSITION &amp; STATE OF MIND TO KEEP EVERYTHING INTERSTED</t>
+  </si>
+  <si>
+    <t>GITHUB PAGES INTRO</t>
+  </si>
+  <si>
+    <t>EVERYTHING TO ORAGANIZE FOR BETTER UNDERSTANDING AND FOCUS</t>
+  </si>
+  <si>
+    <t>FIX ROUTINE FOR FAJR WORK</t>
+  </si>
+  <si>
+    <t>ROUTINE AFTER RAMADAN</t>
+  </si>
+  <si>
+    <t>SLEEP</t>
+  </si>
+  <si>
+    <t>EATING</t>
+  </si>
+  <si>
+    <t>WORKOUT/EXERCISE</t>
+  </si>
+  <si>
+    <t>WORK</t>
+  </si>
+  <si>
+    <t>CHILLOUT</t>
+  </si>
+  <si>
+    <t>ONE TOPIC TO BE CALM AFTER RAMADAN</t>
+  </si>
+  <si>
+    <t>LEVEL 2</t>
+  </si>
+  <si>
+    <t>CONFIDENCE FOR TAKING BIG PROJECTS VIA SADAF SCHOOL/JAHRKAND AUSHADHALAYA</t>
   </si>
 </sst>
 </file>
@@ -770,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -918,6 +974,10 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1292,10 +1352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46058DB-03A2-4EE9-B28C-879DE1361423}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1353,7 +1414,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E6" s="2">
@@ -1458,7 +1519,7 @@
     <mergeCell ref="E3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="B4">
-    <cfRule type="iconSet" priority="5">
+    <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1467,23 +1528,73 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
     <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
     <cfRule type="iconSet" priority="1">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BB013E-7F4C-4E15-90B8-1F088E5D1EEA}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1516,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
@@ -1531,10 +1642,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
@@ -1573,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1592,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
@@ -1653,10 +1764,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2256,10 +2367,10 @@
         <v>44305</v>
       </c>
       <c r="E27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="45" t="s">
         <v>106</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -2272,13 +2383,13 @@
         <v>44307</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -2286,45 +2397,66 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D31" s="9">
         <v>44309</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E31" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="D32" s="9">
         <v>44310</v>
       </c>
-    </row>
-    <row r="33" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E32" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="D33" s="9">
         <v>44311</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="D34" s="9">
         <v>44312</v>
       </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D35" s="9">
         <v>44313</v>
       </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D36" s="9">
         <v>44314</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D37" s="9">
         <v>44315</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D38" s="9">
         <v>44316</v>
       </c>
@@ -2332,7 +2464,7 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C5">
-    <cfRule type="iconSet" priority="56">
+    <cfRule type="iconSet" priority="58">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2341,7 +2473,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="iconSet" priority="50">
+    <cfRule type="iconSet" priority="52">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2350,7 +2482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="iconSet" priority="49">
+    <cfRule type="iconSet" priority="51">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2359,6 +2491,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
+    <cfRule type="iconSet" priority="46">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
     <cfRule type="iconSet" priority="44">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2367,39 +2508,39 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="iconSet" priority="42">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E5:L5">
-    <cfRule type="expression" dxfId="4" priority="41">
+    <cfRule type="expression" dxfId="4" priority="43">
       <formula>TODAY()-WEEKDAY(TODAY(), 3)=$A2-WEEKDAY($A2, 3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D38">
-    <cfRule type="timePeriod" dxfId="3" priority="40" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="3" priority="42" timePeriod="today">
       <formula>FLOOR(D5,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="timePeriod" dxfId="2" priority="38" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="2" priority="40" timePeriod="today">
       <formula>FLOOR(D13,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="1" priority="39" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="1" priority="41" timePeriod="today">
       <formula>FLOOR(D13,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="timePeriod" dxfId="0" priority="33" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="0" priority="35" timePeriod="today">
       <formula>FLOOR(D17,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
+    <cfRule type="iconSet" priority="25">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
     <cfRule type="iconSet" priority="23">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2408,7 +2549,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="K15">
+    <cfRule type="iconSet" priority="22">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:L14">
     <cfRule type="iconSet" priority="21">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2417,7 +2567,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="K10">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2426,7 +2576,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:L14">
+  <conditionalFormatting sqref="K9">
     <cfRule type="iconSet" priority="19">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2435,7 +2585,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
+  <conditionalFormatting sqref="E8:E9">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2444,7 +2594,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="J8:K8">
     <cfRule type="iconSet" priority="17">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2453,7 +2603,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="M8">
     <cfRule type="iconSet" priority="16">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2462,7 +2612,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:K8">
+  <conditionalFormatting sqref="B11">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2471,7 +2621,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
+  <conditionalFormatting sqref="B13">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2480,7 +2630,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
+  <conditionalFormatting sqref="K19 I18 K17">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2489,7 +2639,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
+  <conditionalFormatting sqref="K20">
     <cfRule type="iconSet" priority="12">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2498,7 +2648,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19 I18 K17">
+  <conditionalFormatting sqref="K21">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2507,7 +2657,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+  <conditionalFormatting sqref="K22">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2516,7 +2666,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
+  <conditionalFormatting sqref="K23">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2525,7 +2675,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="B5">
     <cfRule type="iconSet" priority="8">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2534,7 +2684,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="B8">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2543,7 +2693,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
+  <conditionalFormatting sqref="K24">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2552,7 +2702,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="K25">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2561,7 +2711,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+  <conditionalFormatting sqref="E29">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2570,7 +2720,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="F29">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2579,7 +2729,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="E31:F31">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2588,7 +2738,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="E32">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2603,7 +2753,68 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E983DD8A-97E1-46D9-BBEE-4B96767AADAF}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A745F8F-94AB-41A2-9F80-E549DC2AEE3D}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2687,7 +2898,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2823,7 +3034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCEDF47-25E7-44A5-933B-CF13EEA2D2AB}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C7"/>
@@ -2916,13 +3127,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D96E389-9DAD-498E-8FD4-9BFC886CAD97}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:D4"/>
+  <dimension ref="B1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2931,12 +3142,12 @@
     <col min="3" max="3" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="38" t="s">
         <v>60</v>
       </c>
@@ -2947,12 +3158,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="35">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:G4"/>
+  </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="B3:C3">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C4">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2961,7 +3205,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+  <conditionalFormatting sqref="H4">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2975,23 +3219,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D3C4AA-331A-41DA-9726-76E88A4507D1}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="48"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -3011,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -3019,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -3035,7 +3280,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -3043,12 +3288,15 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="48">
         <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -3090,12 +3338,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE07AAE-AD2E-426B-BC73-7803917A13F4}">
-  <dimension ref="A1:G6"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3146,18 +3395,38 @@
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
         <v>122</v>
       </c>
-      <c r="C5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="44">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3166,7 +3435,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+  <conditionalFormatting sqref="D3">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3175,7 +3444,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+  <conditionalFormatting sqref="B4">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3184,7 +3453,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="B5">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3193,7 +3462,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
+  <conditionalFormatting sqref="B6">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/DAILY TARGET STATUS.xlsx
+++ b/DAILY TARGET STATUS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP EXCEL\IMP_EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP_EXCEL_GITHUB\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8CADEE-465E-471D-96B1-A864BBA769F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6343692-7238-46FA-932E-9ED841235563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{E2059095-652E-4CCD-BC0B-3CAD80266612}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="10" xr2:uid="{E2059095-652E-4CCD-BC0B-3CAD80266612}"/>
   </bookViews>
   <sheets>
     <sheet name="LIFE_SATISFACTION" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="LEVEL UP" sheetId="5" r:id="rId7"/>
     <sheet name="OWN PRODUCT" sheetId="10" r:id="rId8"/>
     <sheet name="RULES_TO_EASE_LIFE" sheetId="8" r:id="rId9"/>
-    <sheet name="EVERYTHING_TO_OR" sheetId="11" r:id="rId10"/>
+    <sheet name="POWER_UPS_10x" sheetId="11" r:id="rId10"/>
+    <sheet name="TOPIC_COVER_HISTORY" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="155">
   <si>
     <t>SL NO</t>
   </si>
@@ -361,9 +362,6 @@
   </si>
   <si>
     <t>TRY TO OUTSOURCE THINGS</t>
-  </si>
-  <si>
-    <t>SOME FREE HOURS TO FIGURE EVERYTHING FOR BEST PERFORMANCE</t>
   </si>
   <si>
     <t>make slides and teach</t>
@@ -420,9 +418,6 @@
     <t>JA BLUEPRINT</t>
   </si>
   <si>
-    <t>sl.no</t>
-  </si>
-  <si>
     <t>HOW TO BE CALM &amp; STRESS FREE AFTER RAMADAN LIKE RAMADAN</t>
   </si>
   <si>
@@ -441,12 +436,6 @@
     <t>GITHUB PAGES INTRO</t>
   </si>
   <si>
-    <t>EVERYTHING TO ORAGANIZE FOR BETTER UNDERSTANDING AND FOCUS</t>
-  </si>
-  <si>
-    <t>FIX ROUTINE FOR FAJR WORK</t>
-  </si>
-  <si>
     <t>ROUTINE AFTER RAMADAN</t>
   </si>
   <si>
@@ -472,6 +461,57 @@
   </si>
   <si>
     <t>CONFIDENCE FOR TAKING BIG PROJECTS VIA SADAF SCHOOL/JAHRKAND AUSHADHALAYA</t>
+  </si>
+  <si>
+    <t>ANALYZE FOR HALF AN HOUR</t>
+  </si>
+  <si>
+    <t>SOME FREE HOURS TO ANALYZE ND FIGURE EVERYTHING FOR BEST PERFORMANCE</t>
+  </si>
+  <si>
+    <t>POWRUPS 10X</t>
+  </si>
+  <si>
+    <t>GOOGLE ADS</t>
+  </si>
+  <si>
+    <t>ONLINE TEACHING PLATFORM</t>
+  </si>
+  <si>
+    <t>AMAZON STORE/ALIBABA</t>
+  </si>
+  <si>
+    <t>SOCIAL MEDIA/PROFESSIONAL MEDIA/GOOGLE MY BUSINESS</t>
+  </si>
+  <si>
+    <t>SAHEB WEB</t>
+  </si>
+  <si>
+    <t>FIRST UPWORK PROJECT</t>
+  </si>
+  <si>
+    <t>APP UPLOAD</t>
+  </si>
+  <si>
+    <t>DARIUS</t>
+  </si>
+  <si>
+    <t>AMERICA</t>
+  </si>
+  <si>
+    <t>JAGAN</t>
+  </si>
+  <si>
+    <t>PUNJAB</t>
+  </si>
+  <si>
+    <t>BANGLADESH</t>
+  </si>
+  <si>
+    <t>RUSSIA</t>
+  </si>
+  <si>
+    <t>TOPIC  COVER HISTORY</t>
   </si>
 </sst>
 </file>
@@ -826,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -956,6 +996,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,13 +1014,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1367,29 +1419,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
@@ -1561,34 +1613,65 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BB013E-7F4C-4E15-90B8-1F088E5D1EEA}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="49"/>
+    <col min="2" max="2" width="52.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="A1" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>124</v>
+      <c r="A2" s="49">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="49">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="49">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="49">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1599,13 +1682,192 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF0E451-E1EC-4B87-A7C8-63106F063F1D}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="49">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="49">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C351B620-5068-471E-96BD-A53152A6AA37}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:J16"/>
+  <dimension ref="A2:L16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1616,7 +1878,7 @@
     <col min="6" max="6" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1626,15 +1888,15 @@
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1642,17 +1904,19 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F3" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1660,7 +1924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1668,7 +1932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1676,7 +1940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1684,10 +1948,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1695,20 +1959,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1716,7 +1980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>68</v>
       </c>
@@ -1724,8 +1988,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
     <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F3:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="B9">
     <cfRule type="iconSet" priority="10">
@@ -1762,12 +2026,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462FD8EF-5981-4559-A7AD-606F3A589A1B}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2383,13 +2647,13 @@
         <v>44307</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -2402,10 +2666,10 @@
         <v>44309</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
@@ -2413,58 +2677,157 @@
         <v>44310</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="D33" s="9">
         <v>44311</v>
       </c>
-      <c r="E33" s="45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E33" s="59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="D34" s="9">
         <v>44312</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="F34" s="45"/>
+    </row>
+    <row r="35" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D35" s="9">
         <v>44313</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D36" s="9">
         <v>44314</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="D37" s="9">
         <v>44315</v>
       </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="H37" s="36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D38" s="9">
         <v>44316</v>
+      </c>
+      <c r="H38" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H39" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H40" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H41" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H42" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H43" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H44" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H45" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H46" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H47" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H48" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H49" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H50" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H51" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H52" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H53" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H54" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H55" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H56" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H57" s="58" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C5">
-    <cfRule type="iconSet" priority="58">
+    <cfRule type="iconSet" priority="59">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2473,6 +2836,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
+    <cfRule type="iconSet" priority="53">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
     <cfRule type="iconSet" priority="52">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2481,17 +2853,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8">
-    <cfRule type="iconSet" priority="51">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="iconSet" priority="46">
+    <cfRule type="iconSet" priority="47">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2500,7 +2863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="iconSet" priority="44">
+    <cfRule type="iconSet" priority="45">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2509,30 +2872,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:L5">
-    <cfRule type="expression" dxfId="4" priority="43">
+    <cfRule type="expression" dxfId="4" priority="44">
       <formula>TODAY()-WEEKDAY(TODAY(), 3)=$A2-WEEKDAY($A2, 3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D38">
-    <cfRule type="timePeriod" dxfId="3" priority="42" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="3" priority="43" timePeriod="today">
       <formula>FLOOR(D5,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="timePeriod" dxfId="2" priority="40" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="2" priority="41" timePeriod="today">
       <formula>FLOOR(D13,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="1" priority="41" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="1" priority="42" timePeriod="today">
       <formula>FLOOR(D13,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="timePeriod" dxfId="0" priority="35" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="0" priority="36" timePeriod="today">
       <formula>FLOOR(D17,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="iconSet" priority="25">
+    <cfRule type="iconSet" priority="26">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2541,6 +2904,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
+    <cfRule type="iconSet" priority="24">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
     <cfRule type="iconSet" priority="23">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2549,7 +2921,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="K14:L14">
     <cfRule type="iconSet" priority="22">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2558,7 +2930,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:L14">
+  <conditionalFormatting sqref="K10">
     <cfRule type="iconSet" priority="21">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2567,7 +2939,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
+  <conditionalFormatting sqref="K9">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2576,7 +2948,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="E8:E9">
     <cfRule type="iconSet" priority="19">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2585,7 +2957,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="J8:K8">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2594,7 +2966,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:K8">
+  <conditionalFormatting sqref="M8">
     <cfRule type="iconSet" priority="17">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2603,7 +2975,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
+  <conditionalFormatting sqref="B11">
     <cfRule type="iconSet" priority="16">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2612,7 +2984,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
+  <conditionalFormatting sqref="B13">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2621,7 +2993,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
+  <conditionalFormatting sqref="K19 I18 K17">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2630,7 +3002,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19 I18 K17">
+  <conditionalFormatting sqref="K20">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2639,7 +3011,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+  <conditionalFormatting sqref="K21">
     <cfRule type="iconSet" priority="12">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2648,7 +3020,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
+  <conditionalFormatting sqref="K22">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2657,7 +3029,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="K23">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2666,7 +3038,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="B5">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2675,7 +3047,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
+  <conditionalFormatting sqref="B8">
     <cfRule type="iconSet" priority="8">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2684,7 +3056,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="K24">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2693,7 +3065,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+  <conditionalFormatting sqref="K25">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2702,7 +3074,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="E29">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2711,7 +3083,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="F29">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2720,7 +3092,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="E31:F31">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2729,7 +3101,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:F31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2738,7 +3110,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="H37">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2768,7 +3140,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="55" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -2781,27 +3153,27 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2818,25 +3190,27 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.21875" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -2848,6 +3222,15 @@
       <c r="C2" s="46">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="46">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2859,6 +3242,15 @@
       <c r="C3" s="46">
         <v>1</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="46">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2870,6 +3262,15 @@
       <c r="C4" s="46">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="46">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2881,6 +3282,15 @@
       <c r="C5" s="46">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="46">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -2892,6 +3302,15 @@
       <c r="C6" s="46">
         <v>1</v>
       </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="46">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2900,84 +3319,147 @@
       <c r="B7" t="s">
         <v>107</v>
       </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="E23">
         <v>22</v>
       </c>
     </row>
@@ -2986,6 +3468,51 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="C2">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2994,7 +3521,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+  <conditionalFormatting sqref="G3">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3003,7 +3530,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="G4">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3012,7 +3539,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="G5">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3021,7 +3548,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="G6">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3160,10 +3687,10 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D4" s="56"/>
       <c r="E4" s="56"/>
@@ -3235,28 +3762,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="A1" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="48">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -3264,7 +3791,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -3280,7 +3807,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -3288,7 +3815,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -3344,7 +3871,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3354,15 +3881,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:7" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3395,10 +3922,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
         <v>121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3406,10 +3933,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>

--- a/DAILY TARGET STATUS.xlsx
+++ b/DAILY TARGET STATUS.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP_EXCEL_GITHUB\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6343692-7238-46FA-932E-9ED841235563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE50FBF-FB72-4256-9FE6-EC089A08C8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="10" xr2:uid="{E2059095-652E-4CCD-BC0B-3CAD80266612}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{E2059095-652E-4CCD-BC0B-3CAD80266612}"/>
   </bookViews>
   <sheets>
     <sheet name="LIFE_SATISFACTION" sheetId="7" r:id="rId1"/>
     <sheet name="RECENT WORK" sheetId="1" r:id="rId2"/>
     <sheet name="TARGET" sheetId="2" r:id="rId3"/>
-    <sheet name="AFTER_RAMADAN_ROUTINE" sheetId="12" r:id="rId4"/>
-    <sheet name="CORPORATE_WORK" sheetId="9" r:id="rId5"/>
-    <sheet name="ROUTINE" sheetId="3" r:id="rId6"/>
-    <sheet name="LEVEL UP" sheetId="5" r:id="rId7"/>
-    <sheet name="OWN PRODUCT" sheetId="10" r:id="rId8"/>
-    <sheet name="RULES_TO_EASE_LIFE" sheetId="8" r:id="rId9"/>
-    <sheet name="POWER_UPS_10x" sheetId="11" r:id="rId10"/>
-    <sheet name="TOPIC_COVER_HISTORY" sheetId="13" r:id="rId11"/>
+    <sheet name="GET_OUT_PN_MSTB" sheetId="14" r:id="rId4"/>
+    <sheet name="AFTER_RAMADAN_ROUTINE" sheetId="12" r:id="rId5"/>
+    <sheet name="CORPORATE_WORK" sheetId="9" r:id="rId6"/>
+    <sheet name="ROUTINE" sheetId="3" r:id="rId7"/>
+    <sheet name="LEVEL UP" sheetId="5" r:id="rId8"/>
+    <sheet name="OWN PRODUCT" sheetId="10" r:id="rId9"/>
+    <sheet name="RULES_TO_EASE_LIFE" sheetId="8" r:id="rId10"/>
+    <sheet name="POWER_UPS_10x" sheetId="11" r:id="rId11"/>
+    <sheet name="TOPIC_COVER_HISTORY" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="164">
   <si>
     <t>SL NO</t>
   </si>
@@ -512,6 +513,33 @@
   </si>
   <si>
     <t>TOPIC  COVER HISTORY</t>
+  </si>
+  <si>
+    <t>MAKE ADMIN PANEL PRESENTATION at evng</t>
+  </si>
+  <si>
+    <t>STUDENT HOMEWORK/FA1 SYLLABUS</t>
+  </si>
+  <si>
+    <t>GET OUT FROM PN AND MSTB</t>
+  </si>
+  <si>
+    <t>KEEP UR SELF-ESTEEM UP</t>
+  </si>
+  <si>
+    <t>PROPER NAMAZ</t>
+  </si>
+  <si>
+    <t>STAY AWAY FROM FOOTSTEP OF SATAN AND DON’T GO NEAR ZN</t>
+  </si>
+  <si>
+    <t>IF U CAN STAY AWAY FROM HALAL THING(FOOD FAST) FOR ALLAH, THEN CAN'T U STAY AWAY FROM HARAM THING FOR ALLAH</t>
+  </si>
+  <si>
+    <t>SATAN TELLS U THAT IT'S NOT A BIG DEAL , VERY SMALL THING BUT IT IS ONE OF THE DANGEROUS THING THAT WILL LEAD U TO JAHANNAM AFTER DOING ALL EFFORT/CONTROL FOR JANNAH</t>
+  </si>
+  <si>
+    <t>GET MARRIED AS SOON AS POSSIBLE (under 1 year)</t>
   </si>
 </sst>
 </file>
@@ -866,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -999,6 +1027,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,10 +1042,10 @@
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1021,13 +1055,10 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1419,29 +1450,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="3" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
@@ -1611,12 +1642,150 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE07AAE-AD2E-426B-BC73-7803917A13F4}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="48.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="42">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="44">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="44">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BB013E-7F4C-4E15-90B8-1F088E5D1EEA}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1626,21 +1795,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="49">
@@ -1682,11 +1851,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF0E451-E1EC-4B87-A7C8-63106F063F1D}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1888,13 +2057,13 @@
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1906,15 +2075,15 @@
       <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -1966,11 +2135,11 @@
       <c r="B9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -2028,10 +2197,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2684,7 +2853,7 @@
       <c r="D33" s="9">
         <v>44311</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="51" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2721,113 +2890,149 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="D38" s="9">
         <v>44316</v>
       </c>
-      <c r="H38" s="58" t="s">
+      <c r="H38" s="36" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H39" s="58" t="s">
+    <row r="39" spans="4:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D39" s="9">
+        <v>44317</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" s="50" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H40" s="58" t="s">
+    <row r="40" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D40" s="9">
+        <v>44318</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="H40" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="41" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H41" s="58" t="s">
+      <c r="D41" s="9">
+        <v>44319</v>
+      </c>
+      <c r="H41" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="42" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H42" s="58" t="s">
+      <c r="D42" s="9">
+        <v>44320</v>
+      </c>
+      <c r="H42" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="43" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H43" s="58" t="s">
+      <c r="D43" s="9">
+        <v>44321</v>
+      </c>
+      <c r="H43" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="44" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H44" s="58" t="s">
+      <c r="D44" s="9">
+        <v>44322</v>
+      </c>
+      <c r="H44" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="45" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H45" s="58" t="s">
+      <c r="D45" s="9">
+        <v>44323</v>
+      </c>
+      <c r="H45" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H46" s="58" t="s">
+      <c r="D46" s="9">
+        <v>44324</v>
+      </c>
+      <c r="H46" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="47" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H47" s="58" t="s">
+      <c r="D47" s="9">
+        <v>44325</v>
+      </c>
+      <c r="H47" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="48" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H48" s="58" t="s">
+      <c r="D48" s="9">
+        <v>44326</v>
+      </c>
+      <c r="H48" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="49" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H49" s="58" t="s">
+      <c r="H49" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="50" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H50" s="58" t="s">
+      <c r="H50" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="51" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H51" s="58" t="s">
+      <c r="H51" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="52" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H52" s="58" t="s">
+      <c r="H52" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="53" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H53" s="58" t="s">
+      <c r="H53" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="54" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H54" s="58" t="s">
+      <c r="H54" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="55" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H55" s="58" t="s">
+      <c r="H55" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="56" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H56" s="58" t="s">
+      <c r="H56" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="57" spans="8:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H57" s="58" t="s">
+      <c r="H57" s="50" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C5">
-    <cfRule type="iconSet" priority="59">
+    <cfRule type="iconSet" priority="60">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2836,6 +3041,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
+    <cfRule type="iconSet" priority="54">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
     <cfRule type="iconSet" priority="53">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2844,17 +3058,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8">
-    <cfRule type="iconSet" priority="52">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="iconSet" priority="47">
+    <cfRule type="iconSet" priority="48">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2863,7 +3068,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="iconSet" priority="45">
+    <cfRule type="iconSet" priority="46">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2872,30 +3077,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:L5">
-    <cfRule type="expression" dxfId="4" priority="44">
+    <cfRule type="expression" dxfId="4" priority="45">
       <formula>TODAY()-WEEKDAY(TODAY(), 3)=$A2-WEEKDAY($A2, 3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D38">
-    <cfRule type="timePeriod" dxfId="3" priority="43" timePeriod="today">
+  <conditionalFormatting sqref="D5:D48">
+    <cfRule type="timePeriod" dxfId="3" priority="44" timePeriod="today">
       <formula>FLOOR(D5,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="timePeriod" dxfId="2" priority="41" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="2" priority="42" timePeriod="today">
       <formula>FLOOR(D13,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="1" priority="42" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="1" priority="43" timePeriod="today">
       <formula>FLOOR(D13,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="timePeriod" dxfId="0" priority="36" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="0" priority="37" timePeriod="today">
       <formula>FLOOR(D17,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="iconSet" priority="26">
+    <cfRule type="iconSet" priority="27">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2904,6 +3109,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
+    <cfRule type="iconSet" priority="25">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
     <cfRule type="iconSet" priority="24">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2912,7 +3126,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="K14:L14">
     <cfRule type="iconSet" priority="23">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2921,7 +3135,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:L14">
+  <conditionalFormatting sqref="K10">
     <cfRule type="iconSet" priority="22">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2930,7 +3144,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
+  <conditionalFormatting sqref="K9">
     <cfRule type="iconSet" priority="21">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2939,7 +3153,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="E8:E9">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2948,7 +3162,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="J8:K8">
     <cfRule type="iconSet" priority="19">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2957,7 +3171,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:K8">
+  <conditionalFormatting sqref="M8">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2966,7 +3180,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
+  <conditionalFormatting sqref="B11">
     <cfRule type="iconSet" priority="17">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2975,7 +3189,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
+  <conditionalFormatting sqref="B13">
     <cfRule type="iconSet" priority="16">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2984,7 +3198,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
+  <conditionalFormatting sqref="K19 I18 K17">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2993,7 +3207,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19 I18 K17">
+  <conditionalFormatting sqref="K20">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3002,7 +3216,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+  <conditionalFormatting sqref="K21">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3011,7 +3225,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
+  <conditionalFormatting sqref="K22">
     <cfRule type="iconSet" priority="12">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3020,7 +3234,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="K23">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3029,7 +3243,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="B5">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3038,7 +3252,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
+  <conditionalFormatting sqref="B8">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3047,7 +3261,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="K24">
     <cfRule type="iconSet" priority="8">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3056,7 +3270,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+  <conditionalFormatting sqref="K25">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3065,7 +3279,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="E29">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3074,7 +3288,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="F29">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3083,7 +3297,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="E31:F31">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3092,7 +3306,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:F31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3101,7 +3315,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="H37">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3110,7 +3324,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="H38">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3125,6 +3339,86 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7D2707-DAB6-49A5-8BB0-D58B31706904}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="161.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E983DD8A-97E1-46D9-BBEE-4B96767AADAF}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F6"/>
@@ -3139,14 +3433,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -3184,7 +3478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A745F8F-94AB-41A2-9F80-E549DC2AEE3D}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G23"/>
@@ -3202,15 +3496,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -3561,7 +3855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCEDF47-25E7-44A5-933B-CF13EEA2D2AB}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C7"/>
@@ -3654,7 +3948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D96E389-9DAD-498E-8FD4-9BFC886CAD97}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:H4"/>
@@ -3689,13 +3983,13 @@
       <c r="B4" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="35">
         <v>1</v>
       </c>
@@ -3746,7 +4040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D3C4AA-331A-41DA-9726-76E88A4507D1}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:M13"/>
@@ -3762,21 +4056,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="48">
@@ -3863,142 +4157,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE07AAE-AD2E-426B-BC73-7803917A13F4}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="48.44140625" customWidth="1"/>
-    <col min="3" max="3" width="77.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:7" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="42">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44">
-        <v>2</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="44">
-        <v>3</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44">
-        <v>4</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/DAILY TARGET STATUS.xlsx
+++ b/DAILY TARGET STATUS.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP_EXCEL_GITHUB\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE50FBF-FB72-4256-9FE6-EC089A08C8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C4168-CAEE-4AD6-A76D-A854A24B16A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{E2059095-652E-4CCD-BC0B-3CAD80266612}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{E2059095-652E-4CCD-BC0B-3CAD80266612}"/>
   </bookViews>
   <sheets>
     <sheet name="LIFE_SATISFACTION" sheetId="7" r:id="rId1"/>
     <sheet name="RECENT WORK" sheetId="1" r:id="rId2"/>
     <sheet name="TARGET" sheetId="2" r:id="rId3"/>
-    <sheet name="GET_OUT_PN_MSTB" sheetId="14" r:id="rId4"/>
-    <sheet name="AFTER_RAMADAN_ROUTINE" sheetId="12" r:id="rId5"/>
-    <sheet name="CORPORATE_WORK" sheetId="9" r:id="rId6"/>
-    <sheet name="ROUTINE" sheetId="3" r:id="rId7"/>
-    <sheet name="LEVEL UP" sheetId="5" r:id="rId8"/>
-    <sheet name="OWN PRODUCT" sheetId="10" r:id="rId9"/>
-    <sheet name="RULES_TO_EASE_LIFE" sheetId="8" r:id="rId10"/>
-    <sheet name="POWER_UPS_10x" sheetId="11" r:id="rId11"/>
-    <sheet name="TOPIC_COVER_HISTORY" sheetId="13" r:id="rId12"/>
+    <sheet name="RECENT TARGET" sheetId="15" r:id="rId4"/>
+    <sheet name="GET_OUT_PN_MSTB" sheetId="14" r:id="rId5"/>
+    <sheet name="AFTER_RAMADAN_ROUTINE" sheetId="12" r:id="rId6"/>
+    <sheet name="CORPORATE_WORK" sheetId="9" r:id="rId7"/>
+    <sheet name="ROUTINE" sheetId="3" r:id="rId8"/>
+    <sheet name="LEVEL UP" sheetId="5" r:id="rId9"/>
+    <sheet name="OWN PRODUCT" sheetId="10" r:id="rId10"/>
+    <sheet name="RULES_TO_EASE_LIFE" sheetId="8" r:id="rId11"/>
+    <sheet name="POWER_UPS_10x" sheetId="11" r:id="rId12"/>
+    <sheet name="TOPIC_COVER_HISTORY" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="165">
   <si>
     <t>SL NO</t>
   </si>
@@ -540,6 +541,9 @@
   </si>
   <si>
     <t>GET MARRIED AS SOON AS POSSIBLE (under 1 year)</t>
+  </si>
+  <si>
+    <t>RECENT TARGET</t>
   </si>
 </sst>
 </file>
@@ -894,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1048,6 +1052,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1058,7 +1065,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1642,6 +1649,125 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D3C4AA-331A-41DA-9726-76E88A4507D1}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="48"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="48">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="48">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="48">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="48">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="48">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="48">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="48">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE07AAE-AD2E-426B-BC73-7803917A13F4}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G7"/>
@@ -1779,7 +1905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BB013E-7F4C-4E15-90B8-1F088E5D1EEA}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:M5"/>
@@ -1795,21 +1921,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="49">
@@ -1851,7 +1977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF0E451-E1EC-4B87-A7C8-63106F063F1D}">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -1865,12 +1991,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="49">
@@ -2036,7 +2162,7 @@
   <dimension ref="A2:L16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2197,10 +2323,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3339,6 +3465,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D793C673-6390-4D50-87BC-CA59FA431FFE}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7D2707-DAB6-49A5-8BB0-D58B31706904}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -3352,14 +3509,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -3418,7 +3575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E983DD8A-97E1-46D9-BBEE-4B96767AADAF}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F6"/>
@@ -3433,14 +3590,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -3478,7 +3635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A745F8F-94AB-41A2-9F80-E549DC2AEE3D}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G23"/>
@@ -3855,7 +4012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCEDF47-25E7-44A5-933B-CF13EEA2D2AB}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C7"/>
@@ -3948,7 +4105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D96E389-9DAD-498E-8FD4-9BFC886CAD97}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:H4"/>
@@ -3983,13 +4140,13 @@
       <c r="B4" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="35">
         <v>1</v>
       </c>
@@ -4038,123 +4195,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D3C4AA-331A-41DA-9726-76E88A4507D1}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:M13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="48"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="48">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="48">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="48">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="48">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="48">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="48">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="48">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="48">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/DAILY TARGET STATUS.xlsx
+++ b/DAILY TARGET STATUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP_EXCEL_GITHUB\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C4168-CAEE-4AD6-A76D-A854A24B16A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1197574C-B210-4102-A31A-8AD20B24E321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{E2059095-652E-4CCD-BC0B-3CAD80266612}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{E2059095-652E-4CCD-BC0B-3CAD80266612}"/>
   </bookViews>
   <sheets>
     <sheet name="LIFE_SATISFACTION" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="165">
   <si>
     <t>SL NO</t>
   </si>
@@ -1052,6 +1052,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1063,9 +1066,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1664,21 +1664,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="48">
@@ -1921,21 +1921,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="49">
@@ -1991,12 +1991,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="49">
@@ -2323,10 +2323,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3054,9 +3054,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D42" s="9">
         <v>44320</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>156</v>
       </c>
       <c r="H42" s="50" t="s">
         <v>138</v>
@@ -3468,19 +3471,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D793C673-6390-4D50-87BC-CA59FA431FFE}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -3509,14 +3512,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -3590,14 +3593,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -4140,13 +4143,13 @@
       <c r="B4" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="35">
         <v>1</v>
       </c>

--- a/DAILY TARGET STATUS.xlsx
+++ b/DAILY TARGET STATUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP_EXCEL_GITHUB\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1197574C-B210-4102-A31A-8AD20B24E321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C904C3B-6B9A-48D0-96D8-1A96196C930D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{E2059095-652E-4CCD-BC0B-3CAD80266612}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="167">
   <si>
     <t>SL NO</t>
   </si>
@@ -544,6 +544,12 @@
   </si>
   <si>
     <t>RECENT TARGET</t>
+  </si>
+  <si>
+    <t>make slides after meeting in daytime</t>
+  </si>
+  <si>
+    <t>THINK ABOUT QUESTIONS ON JH_AUS</t>
   </si>
 </sst>
 </file>
@@ -2324,9 +2330,9 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3031,7 +3037,7 @@
       <c r="E39" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="H39" s="50" t="s">
+      <c r="H39" s="36" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3042,32 +3048,36 @@
       <c r="E40" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="H40" s="50" t="s">
+      <c r="H40" s="36" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="D41" s="9">
         <v>44319</v>
       </c>
-      <c r="H41" s="50" t="s">
+      <c r="H41" s="36" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D42" s="9">
         <v>44320</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>156</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="F42" s="45"/>
       <c r="H42" s="50" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D43" s="9">
         <v>44321</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>166</v>
       </c>
       <c r="H43" s="50" t="s">
         <v>138</v>
@@ -3161,7 +3171,7 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C5">
-    <cfRule type="iconSet" priority="60">
+    <cfRule type="iconSet" priority="61">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -3170,6 +3180,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
+    <cfRule type="iconSet" priority="55">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
     <cfRule type="iconSet" priority="54">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3178,17 +3197,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8">
-    <cfRule type="iconSet" priority="53">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="iconSet" priority="48">
+    <cfRule type="iconSet" priority="49">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -3197,7 +3207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="iconSet" priority="46">
+    <cfRule type="iconSet" priority="47">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -3206,30 +3216,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:L5">
-    <cfRule type="expression" dxfId="4" priority="45">
+    <cfRule type="expression" dxfId="4" priority="46">
       <formula>TODAY()-WEEKDAY(TODAY(), 3)=$A2-WEEKDAY($A2, 3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D48">
-    <cfRule type="timePeriod" dxfId="3" priority="44" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="3" priority="45" timePeriod="today">
       <formula>FLOOR(D5,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="timePeriod" dxfId="2" priority="42" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="2" priority="43" timePeriod="today">
       <formula>FLOOR(D13,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="1" priority="43" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="1" priority="44" timePeriod="today">
       <formula>FLOOR(D13,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="timePeriod" dxfId="0" priority="37" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="0" priority="38" timePeriod="today">
       <formula>FLOOR(D17,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="iconSet" priority="27">
+    <cfRule type="iconSet" priority="28">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -3238,6 +3248,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
+    <cfRule type="iconSet" priority="26">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
     <cfRule type="iconSet" priority="25">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3246,7 +3265,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="K14:L14">
     <cfRule type="iconSet" priority="24">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3255,7 +3274,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:L14">
+  <conditionalFormatting sqref="K10">
     <cfRule type="iconSet" priority="23">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3264,7 +3283,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
+  <conditionalFormatting sqref="K9">
     <cfRule type="iconSet" priority="22">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3273,7 +3292,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="E8:E9">
     <cfRule type="iconSet" priority="21">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3282,7 +3301,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="J8:K8">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3291,7 +3310,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:K8">
+  <conditionalFormatting sqref="M8">
     <cfRule type="iconSet" priority="19">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3300,7 +3319,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
+  <conditionalFormatting sqref="B11">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3309,7 +3328,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
+  <conditionalFormatting sqref="B13">
     <cfRule type="iconSet" priority="17">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3318,7 +3337,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
+  <conditionalFormatting sqref="K19 I18 K17">
     <cfRule type="iconSet" priority="16">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3327,7 +3346,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19 I18 K17">
+  <conditionalFormatting sqref="K20">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3336,7 +3355,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+  <conditionalFormatting sqref="K21">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3345,7 +3364,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
+  <conditionalFormatting sqref="K22">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3354,7 +3373,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="K23">
     <cfRule type="iconSet" priority="12">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3363,7 +3382,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="B5">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3372,7 +3391,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
+  <conditionalFormatting sqref="B8">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3381,7 +3400,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="K24">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3390,7 +3409,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+  <conditionalFormatting sqref="K25">
     <cfRule type="iconSet" priority="8">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3399,7 +3418,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="E29">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3408,7 +3427,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="F29">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3417,7 +3436,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="E31:F31">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3426,7 +3445,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:F31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3435,7 +3454,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="H37">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3444,7 +3463,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="H38">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -3453,7 +3472,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+  <conditionalFormatting sqref="H39:H41">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/DAILY TARGET STATUS.xlsx
+++ b/DAILY TARGET STATUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP_EXCEL_GITHUB\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C904C3B-6B9A-48D0-96D8-1A96196C930D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC47FE84-72BE-49C0-B591-D2B8B8CE6C36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{E2059095-652E-4CCD-BC0B-3CAD80266612}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="168">
   <si>
     <t>SL NO</t>
   </si>
@@ -550,6 +550,9 @@
   </si>
   <si>
     <t>THINK ABOUT QUESTIONS ON JH_AUS</t>
+  </si>
+  <si>
+    <t>WORK ON DECISION MAKING LIKE JH_AUS WORK 4 HOURS…OTHER</t>
   </si>
 </sst>
 </file>
@@ -1985,6 +1988,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF0E451-E1EC-4B87-A7C8-63106F063F1D}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2330,9 +2334,9 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E45:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3083,9 +3087,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:8" ht="72" x14ac:dyDescent="0.3">
       <c r="D44" s="9">
         <v>44322</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="H44" s="50" t="s">
         <v>138</v>
@@ -3488,6 +3495,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D793C673-6390-4D50-87BC-CA59FA431FFE}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3519,6 +3527,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7D2707-DAB6-49A5-8BB0-D58B31706904}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/DAILY TARGET STATUS.xlsx
+++ b/DAILY TARGET STATUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP_EXCEL_GITHUB\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC47FE84-72BE-49C0-B591-D2B8B8CE6C36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0844752-A303-4FAB-BBBB-8B39D5982913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{E2059095-652E-4CCD-BC0B-3CAD80266612}"/>
   </bookViews>
@@ -16,16 +16,17 @@
     <sheet name="LIFE_SATISFACTION" sheetId="7" r:id="rId1"/>
     <sheet name="RECENT WORK" sheetId="1" r:id="rId2"/>
     <sheet name="TARGET" sheetId="2" r:id="rId3"/>
-    <sheet name="RECENT TARGET" sheetId="15" r:id="rId4"/>
-    <sheet name="GET_OUT_PN_MSTB" sheetId="14" r:id="rId5"/>
-    <sheet name="AFTER_RAMADAN_ROUTINE" sheetId="12" r:id="rId6"/>
-    <sheet name="CORPORATE_WORK" sheetId="9" r:id="rId7"/>
-    <sheet name="ROUTINE" sheetId="3" r:id="rId8"/>
-    <sheet name="LEVEL UP" sheetId="5" r:id="rId9"/>
-    <sheet name="OWN PRODUCT" sheetId="10" r:id="rId10"/>
-    <sheet name="RULES_TO_EASE_LIFE" sheetId="8" r:id="rId11"/>
-    <sheet name="POWER_UPS_10x" sheetId="11" r:id="rId12"/>
-    <sheet name="TOPIC_COVER_HISTORY" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId4"/>
+    <sheet name="RECENT TARGET" sheetId="15" r:id="rId5"/>
+    <sheet name="GET_OUT_PN_MSTB" sheetId="14" r:id="rId6"/>
+    <sheet name="AFTER_RAMADAN_ROUTINE" sheetId="12" r:id="rId7"/>
+    <sheet name="CORPORATE_WORK" sheetId="9" r:id="rId8"/>
+    <sheet name="ROUTINE" sheetId="3" r:id="rId9"/>
+    <sheet name="LEVEL UP" sheetId="5" r:id="rId10"/>
+    <sheet name="OWN PRODUCT" sheetId="10" r:id="rId11"/>
+    <sheet name="RULES_TO_EASE_LIFE" sheetId="8" r:id="rId12"/>
+    <sheet name="POWER_UPS_10x" sheetId="11" r:id="rId13"/>
+    <sheet name="TOPIC_COVER_HISTORY" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="183">
   <si>
     <t>SL NO</t>
   </si>
@@ -554,12 +555,57 @@
   <si>
     <t>WORK ON DECISION MAKING LIKE JH_AUS WORK 4 HOURS…OTHER</t>
   </si>
+  <si>
+    <t>Holiday homework (9th Class)</t>
+  </si>
+  <si>
+    <t>1. Write 10 computer devices and their working.</t>
+  </si>
+  <si>
+    <t>2. What is IPO Cycle ?</t>
+  </si>
+  <si>
+    <t>3. Explain Input, Output  and Processing.</t>
+  </si>
+  <si>
+    <t>4. what is CPU ?</t>
+  </si>
+  <si>
+    <t>5. Write the parts of CPU and their working.</t>
+  </si>
+  <si>
+    <t>6. Define the Following terms:</t>
+  </si>
+  <si>
+    <t>a - Sender</t>
+  </si>
+  <si>
+    <t>b - Communication channel</t>
+  </si>
+  <si>
+    <t>c - Receiver</t>
+  </si>
+  <si>
+    <t>d - Server</t>
+  </si>
+  <si>
+    <t>e - nodes</t>
+  </si>
+  <si>
+    <t>4 hours jh work</t>
+  </si>
+  <si>
+    <t>stock market account creation</t>
+  </si>
+  <si>
+    <t>1 hour skill learn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,6 +753,13 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -907,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1045,6 +1098,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1466,29 +1523,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
@@ -1658,6 +1715,98 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D96E389-9DAD-498E-8FD4-9BFC886CAD97}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="35">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="B3:C3">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D3C4AA-331A-41DA-9726-76E88A4507D1}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:M13"/>
@@ -1673,21 +1822,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="48">
@@ -1776,7 +1925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE07AAE-AD2E-426B-BC73-7803917A13F4}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G7"/>
@@ -1792,15 +1941,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:7" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1914,7 +2063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BB013E-7F4C-4E15-90B8-1F088E5D1EEA}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:M5"/>
@@ -1930,21 +2079,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="49">
@@ -1986,7 +2135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF0E451-E1EC-4B87-A7C8-63106F063F1D}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:D31"/>
@@ -2001,12 +2150,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="49">
@@ -2193,13 +2342,13 @@
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -2211,15 +2360,15 @@
       <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -2271,11 +2420,11 @@
       <c r="B9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -2334,9 +2483,9 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E45:E46"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3102,6 +3251,13 @@
       <c r="D45" s="9">
         <v>44323</v>
       </c>
+      <c r="E45" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="G45" s="45"/>
       <c r="H45" s="50" t="s">
         <v>138</v>
       </c>
@@ -3109,6 +3265,12 @@
     <row r="46" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D46" s="9">
         <v>44324</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" t="s">
+        <v>182</v>
       </c>
       <c r="H46" s="50" t="s">
         <v>138</v>
@@ -3494,6 +3656,86 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63861FA6-1442-4E71-B381-90E6CBB11C85}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="81.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="52" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D793C673-6390-4D50-87BC-CA59FA431FFE}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:D2"/>
@@ -3505,12 +3747,12 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -3525,7 +3767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7D2707-DAB6-49A5-8BB0-D58B31706904}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:F7"/>
@@ -3540,14 +3782,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -3606,7 +3848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E983DD8A-97E1-46D9-BBEE-4B96767AADAF}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F6"/>
@@ -3621,14 +3863,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -3666,7 +3908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A745F8F-94AB-41A2-9F80-E549DC2AEE3D}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G23"/>
@@ -3684,15 +3926,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -4043,7 +4285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCEDF47-25E7-44A5-933B-CF13EEA2D2AB}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C7"/>
@@ -4134,96 +4376,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D96E389-9DAD-498E-8FD4-9BFC886CAD97}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="35">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C4:G4"/>
-  </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="B3:C3">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/DAILY TARGET STATUS.xlsx
+++ b/DAILY TARGET STATUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\IMP_EXCEL_GITHUB\IMP_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0844752-A303-4FAB-BBBB-8B39D5982913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46981AB6-C8D8-4BB6-90B3-6A5FF61345A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{E2059095-652E-4CCD-BC0B-3CAD80266612}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{E2059095-652E-4CCD-BC0B-3CAD80266612}"/>
   </bookViews>
   <sheets>
     <sheet name="LIFE_SATISFACTION" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="182">
   <si>
     <t>SL NO</t>
   </si>
@@ -556,42 +556,6 @@
     <t>WORK ON DECISION MAKING LIKE JH_AUS WORK 4 HOURS…OTHER</t>
   </si>
   <si>
-    <t>Holiday homework (9th Class)</t>
-  </si>
-  <si>
-    <t>1. Write 10 computer devices and their working.</t>
-  </si>
-  <si>
-    <t>2. What is IPO Cycle ?</t>
-  </si>
-  <si>
-    <t>3. Explain Input, Output  and Processing.</t>
-  </si>
-  <si>
-    <t>4. what is CPU ?</t>
-  </si>
-  <si>
-    <t>5. Write the parts of CPU and their working.</t>
-  </si>
-  <si>
-    <t>6. Define the Following terms:</t>
-  </si>
-  <si>
-    <t>a - Sender</t>
-  </si>
-  <si>
-    <t>b - Communication channel</t>
-  </si>
-  <si>
-    <t>c - Receiver</t>
-  </si>
-  <si>
-    <t>d - Server</t>
-  </si>
-  <si>
-    <t>e - nodes</t>
-  </si>
-  <si>
     <t>4 hours jh work</t>
   </si>
   <si>
@@ -599,6 +563,39 @@
   </si>
   <si>
     <t>1 hour skill learn</t>
+  </si>
+  <si>
+    <t>1. What are the two basic components of Computer ? Explain each of them.</t>
+  </si>
+  <si>
+    <t>2. What is Low Level Language ?</t>
+  </si>
+  <si>
+    <t>3. Explain High Level Language.</t>
+  </si>
+  <si>
+    <t>4. Write the Types of Low level language and explain each of them.</t>
+  </si>
+  <si>
+    <t>5. Write the definitions of the following.</t>
+  </si>
+  <si>
+    <t>a - AI (aritificial intelligence)</t>
+  </si>
+  <si>
+    <t>b - Operating System</t>
+  </si>
+  <si>
+    <t>c - Device Drivers</t>
+  </si>
+  <si>
+    <t>d - Utility Programs</t>
+  </si>
+  <si>
+    <t>e - Translators</t>
+  </si>
+  <si>
+    <t>Holiday homework (7th Class)</t>
   </si>
 </sst>
 </file>
@@ -2482,7 +2479,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
@@ -3252,10 +3249,10 @@
         <v>44323</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G45" s="45"/>
       <c r="H45" s="50" t="s">
@@ -3267,10 +3264,10 @@
         <v>44324</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F46" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H46" s="50" t="s">
         <v>138</v>
@@ -3658,76 +3655,83 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63861FA6-1442-4E71-B381-90E6CBB11C85}">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="53" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
-        <v>169</v>
-      </c>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
-        <v>170</v>
-      </c>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="52" t="s">
-        <v>171</v>
-      </c>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="52" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
-        <v>174</v>
+      <c r="A13" s="16" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>175</v>
+      <c r="A14" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>177</v>
+      <c r="A16" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>179</v>
-      </c>
+      <c r="A17" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
